--- a/docs/画面項目定義書/admin_dashboard/admin_dashboard.xlsx
+++ b/docs/画面項目定義書/admin_dashboard/admin_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\admin_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10FF98-A4D2-4ECA-8D06-2CF99C09BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3ADDB0-71AC-4C42-B6C1-B500C1470892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>日本工学院</t>
   </si>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>admin_dashboard</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ref(管理者サイドメニュー)</t>
     <rPh sb="4" eb="7">
       <t>カンリシャ</t>
@@ -211,52 +207,32 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>物理ノードダッシュボード画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <t>admin_dashboard.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>physical_node_dashboardに遷移する</t>
+    <rPh sb="24" eb="26">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>インスタンスタイプダッシュボード画面に遷移する</t>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
+    <t>instance_type_dashboardに遷移する</t>
+    <rPh sb="24" eb="26">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>利用者管理ダッシュボード画面に遷移する</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <t>user_management_dashboardに遷移する</t>
+    <rPh sb="26" eb="28">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>イメージ管理ダッシュボード画面に遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
+    <t>image_dashboardに遷移する</t>
     <rPh sb="16" eb="18">
       <t>センイ</t>
     </rPh>
@@ -1213,14 +1189,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.58203125" customWidth="1"/>
@@ -1280,10 +1256,12 @@
     </row>
     <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="40"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
@@ -1322,7 +1300,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1331,13 +1311,15 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1334,9 @@
       <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1353,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1372,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1391,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1410,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1427,9 @@
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
       <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1446,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
       <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
@@ -1469,7 +1465,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1484,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
       <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
